--- a/results/partialCoop_EUandOthers_noStatRateCond.xlsx
+++ b/results/partialCoop_EUandOthers_noStatRateCond.xlsx
@@ -506,13 +506,13 @@
         <v>2191562303.650852</v>
       </c>
       <c r="G2" t="n">
-        <v>5698548217.235033</v>
+        <v>5698404405.152068</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7890110520.885885</v>
+        <v>7889966708.80292</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         <v>1758162443.862436</v>
       </c>
       <c r="D3" t="n">
-        <v>2841715667.022079</v>
+        <v>2776169796.864468</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>826583376.3415316</v>
       </c>
       <c r="G3" t="n">
-        <v>975394579.6212209</v>
+        <v>975343494.3121085</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6401856066.847267</v>
+        <v>6336259111.380545</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +563,22 @@
         <v>1372235190.501511</v>
       </c>
       <c r="D4" t="n">
-        <v>4356133290.021159</v>
+        <v>4241617517.500263</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2604500659.16819</v>
+        <v>2294682533.419445</v>
       </c>
       <c r="G4" t="n">
-        <v>2281147200.060121</v>
+        <v>2281057948.462371</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10614016339.75098</v>
+        <v>10189593189.88359</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>216876570.1233194</v>
+        <v>210431172.3282159</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>113249462.5681134</v>
+        <v>113244439.1373782</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>330126032.6914328</v>
+        <v>323675611.4655941</v>
       </c>
     </row>
     <row r="6">
@@ -638,13 +638,13 @@
         <v>2089590478.182052</v>
       </c>
       <c r="G6" t="n">
-        <v>7808159845.54374</v>
+        <v>7807946821.722609</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>9897750323.725792</v>
+        <v>9897537299.904661</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +671,13 @@
         <v>5451031606.8659</v>
       </c>
       <c r="G7" t="n">
-        <v>583716866.7031071</v>
+        <v>583707431.6534904</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6034748473.569007</v>
+        <v>6034739038.51939</v>
       </c>
     </row>
     <row r="8">
@@ -695,22 +695,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>48318883.94475555</v>
+        <v>46838150.60156667</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>296283909.0755829</v>
+        <v>296178026.8908914</v>
       </c>
       <c r="G8" t="n">
-        <v>19623931.84448974</v>
+        <v>19622777.78672275</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>364226724.8648282</v>
+        <v>362638955.2791808</v>
       </c>
     </row>
     <row r="9">
@@ -725,25 +725,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>90537.30873756681</v>
+        <v>90540.19425228065</v>
       </c>
       <c r="D9" t="n">
-        <v>1631016569.628298</v>
+        <v>1579591493.877929</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>82426228.66231745</v>
+        <v>82396736.98180892</v>
       </c>
       <c r="G9" t="n">
-        <v>669826671.9626803</v>
+        <v>669786592.1546844</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2383360007.562033</v>
+        <v>2331865363.208674</v>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         <v>6761539149.224922</v>
       </c>
       <c r="D10" t="n">
-        <v>18411066696.57548</v>
+        <v>17975542599.71887</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -770,13 +770,13 @@
         <v>10217146574.60507</v>
       </c>
       <c r="G10" t="n">
-        <v>10405049450.45389</v>
+        <v>10404710010.56149</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>45794801870.85937</v>
+        <v>45358938334.11035</v>
       </c>
     </row>
     <row r="11">
@@ -794,7 +794,7 @@
         <v>1319551039.070694</v>
       </c>
       <c r="D11" t="n">
-        <v>1207460753.885997</v>
+        <v>1177713772.017791</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -803,13 +803,13 @@
         <v>2162513354.411344</v>
       </c>
       <c r="G11" t="n">
-        <v>712909355.9214514</v>
+        <v>712886171.6421026</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5402434503.289486</v>
+        <v>5372664337.141931</v>
       </c>
     </row>
     <row r="12">
@@ -827,7 +827,7 @@
         <v>1721705538.142881</v>
       </c>
       <c r="D12" t="n">
-        <v>6409341440.591218</v>
+        <v>6234503502.035975</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -836,13 +836,13 @@
         <v>1875366743.291695</v>
       </c>
       <c r="G12" t="n">
-        <v>3441620757.621263</v>
+        <v>3441484491.978375</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>13448034479.64706</v>
+        <v>13273060275.44893</v>
       </c>
     </row>
     <row r="13">
@@ -857,25 +857,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>107300540.2000094</v>
+        <v>107300540.2000116</v>
       </c>
       <c r="D13" t="n">
-        <v>57846201.54306293</v>
+        <v>55925554.52623861</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1131.850228557421</v>
+        <v>1131.445715262</v>
       </c>
       <c r="G13" t="n">
-        <v>26695019.38996319</v>
+        <v>26693522.47114414</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>191842892.9832641</v>
+        <v>189920748.6431096</v>
       </c>
     </row>
     <row r="14">
@@ -893,7 +893,7 @@
         <v>1088458061.284382</v>
       </c>
       <c r="D14" t="n">
-        <v>810907201.8119758</v>
+        <v>788605479.1788474</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>421239804.2309884</v>
       </c>
       <c r="G14" t="n">
-        <v>433558658.5530162</v>
+        <v>433541276.978987</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2754163725.880363</v>
+        <v>2731844621.673205</v>
       </c>
     </row>
     <row r="15">
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>12605312612.40199</v>
+        <v>12326817784.4808</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -935,13 +935,13 @@
         <v>5418411701.702073</v>
       </c>
       <c r="G15" t="n">
-        <v>5985590447.024928</v>
+        <v>5985373393.008614</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>24009314761.12899</v>
+        <v>23730602879.19149</v>
       </c>
     </row>
     <row r="16">
@@ -968,13 +968,13 @@
         <v>5177797295.531481</v>
       </c>
       <c r="G16" t="n">
-        <v>22434022568.88881</v>
+        <v>22433457532.04351</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>27611819864.42029</v>
+        <v>27611254827.575</v>
       </c>
     </row>
     <row r="17">
@@ -998,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>53395758.35301419</v>
+        <v>53376676.45428631</v>
       </c>
       <c r="G17" t="n">
-        <v>12301038.72235318</v>
+        <v>12300710.84730662</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65696797.07536737</v>
+        <v>65677387.30159294</v>
       </c>
     </row>
     <row r="18">
@@ -1025,7 +1025,7 @@
         <v>48462862.92231677</v>
       </c>
       <c r="D18" t="n">
-        <v>451501416.4860507</v>
+        <v>439108024.1919932</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>103808408.9572117</v>
       </c>
       <c r="G18" t="n">
-        <v>244986024.0730567</v>
+        <v>244976364.8790484</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>848758712.4386358</v>
+        <v>836355660.9505701</v>
       </c>
     </row>
     <row r="19">
@@ -1067,13 +1067,13 @@
         <v>3521255259.4</v>
       </c>
       <c r="G19" t="n">
-        <v>8767600361.618948</v>
+        <v>8767350819.546227</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>12288855621.01895</v>
+        <v>12288606078.94623</v>
       </c>
     </row>
     <row r="20">
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>187826561.6767645</v>
+        <v>181611741.4531308</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>67991118.20362659</v>
+        <v>67986274.48103294</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>255817679.8803911</v>
+        <v>249598015.9341637</v>
       </c>
     </row>
     <row r="21">
@@ -1121,25 +1121,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>565082761.8001571</v>
+        <v>565082765.5200381</v>
       </c>
       <c r="D21" t="n">
-        <v>1042697208.147083</v>
+        <v>1013010894.837821</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>87286563.32366437</v>
+        <v>87255324.52835703</v>
       </c>
       <c r="G21" t="n">
-        <v>541883613.9691068</v>
+        <v>541860476.9737756</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2236950147.240011</v>
+        <v>2207209461.859991</v>
       </c>
     </row>
     <row r="22">
@@ -1166,13 +1166,13 @@
         <v>180391379.5159</v>
       </c>
       <c r="G22" t="n">
-        <v>87246461.2964479</v>
+        <v>87242986.96530814</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>267637840.8123479</v>
+        <v>267634366.4812081</v>
       </c>
     </row>
     <row r="23">
@@ -1190,7 +1190,7 @@
         <v>3306294849.431211</v>
       </c>
       <c r="D23" t="n">
-        <v>12432939155.8073</v>
+        <v>12242687954.82516</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
         <v>12252873710.93849</v>
       </c>
       <c r="G23" t="n">
-        <v>10142622502.00697</v>
+        <v>10142474223.53591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>38134730218.18398</v>
+        <v>37944330738.73078</v>
       </c>
     </row>
     <row r="24">
@@ -1223,7 +1223,7 @@
         <v>1359811959.308024</v>
       </c>
       <c r="D24" t="n">
-        <v>7860055972.223832</v>
+        <v>7661664731.793097</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1232,13 +1232,13 @@
         <v>3620058858.934917</v>
       </c>
       <c r="G24" t="n">
-        <v>3625454003.145187</v>
+        <v>3625299380.469217</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16465380793.61196</v>
+        <v>16266834930.50525</v>
       </c>
     </row>
     <row r="25">
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>180823143.8144658</v>
+        <v>180758523.5332983</v>
       </c>
       <c r="G25" t="n">
-        <v>180525763.4346326</v>
+        <v>180522768.7297002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>361348907.2490984</v>
+        <v>361281292.2629985</v>
       </c>
     </row>
     <row r="26">
@@ -1298,13 +1298,13 @@
         <v>3813626854.655982</v>
       </c>
       <c r="G26" t="n">
-        <v>8239234161.64359</v>
+        <v>8239069215.37194</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12052861016.29957</v>
+        <v>12052696070.02792</v>
       </c>
     </row>
     <row r="27">
@@ -1331,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2927450759.612351</v>
+        <v>2927363856.143127</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2927450759.612351</v>
+        <v>2927363856.143127</v>
       </c>
     </row>
     <row r="28">
@@ -1361,16 +1361,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>51541948.04045695</v>
+        <v>51523528.63294066</v>
       </c>
       <c r="G28" t="n">
-        <v>4344727.957423521</v>
+        <v>4344158.570506491</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>55886675.99788047</v>
+        <v>55867687.20344716</v>
       </c>
     </row>
     <row r="29">
@@ -1388,7 +1388,7 @@
         <v>15599071.58405</v>
       </c>
       <c r="D29" t="n">
-        <v>91884209.89046331</v>
+        <v>89312912.90469228</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1397,13 +1397,13 @@
         <v>1031132.31895</v>
       </c>
       <c r="G29" t="n">
-        <v>38505507.12477501</v>
+        <v>38503503.10070726</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>147019920.9182383</v>
+        <v>144446619.9083995</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1421,7 @@
         <v>2756250488.925418</v>
       </c>
       <c r="D30" t="n">
-        <v>2304537335.084336</v>
+        <v>2257561623.715925</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>4476135347.038216</v>
       </c>
       <c r="G30" t="n">
-        <v>1365265215.715179</v>
+        <v>1365228603.664255</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10902188386.76315</v>
+        <v>10855176063.34381</v>
       </c>
     </row>
     <row r="31">
@@ -1451,25 +1451,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>164313933.3017717</v>
+        <v>164313933.3020834</v>
       </c>
       <c r="D31" t="n">
-        <v>62128663.0089566</v>
+        <v>60706152.34746993</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>85959.13050162437</v>
+        <v>85928.40771124304</v>
       </c>
       <c r="G31" t="n">
-        <v>20626690.66599838</v>
+        <v>20625581.98597502</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>247155246.1072283</v>
+        <v>245731596.0432396</v>
       </c>
     </row>
     <row r="32">
@@ -1487,22 +1487,22 @@
         <v>95553988.63727365</v>
       </c>
       <c r="D32" t="n">
-        <v>168335373.8955317</v>
+        <v>164122711.4117566</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>51124053.14187074</v>
+        <v>51105783.07633179</v>
       </c>
       <c r="G32" t="n">
-        <v>102119886.8393285</v>
+        <v>102116603.5635912</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>417133302.5140046</v>
+        <v>412899086.6889533</v>
       </c>
     </row>
     <row r="33">
@@ -1529,13 +1529,13 @@
         <v>924691864.6264492</v>
       </c>
       <c r="G33" t="n">
-        <v>1107772474.650903</v>
+        <v>1107736124.741022</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2032464339.277352</v>
+        <v>2032427989.367471</v>
       </c>
     </row>
     <row r="34">
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2502804674.249134</v>
+        <v>1290552412.996203</v>
       </c>
       <c r="D34" t="n">
-        <v>9977172510.315479</v>
+        <v>9771821985.299801</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1562,13 +1562,13 @@
         <v>3218237842.638599</v>
       </c>
       <c r="G34" t="n">
-        <v>5829128900.240168</v>
+        <v>5828968853.619052</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>21527343927.44338</v>
+        <v>20109581094.55366</v>
       </c>
     </row>
     <row r="35">
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>564728280.136566</v>
+        <v>564703859.1353827</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>564728280.136566</v>
+        <v>564703859.1353827</v>
       </c>
     </row>
     <row r="36">
@@ -1616,25 +1616,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4031323080.766756</v>
+        <v>4031323091.636458</v>
       </c>
       <c r="D36" t="n">
-        <v>3229188394.46045</v>
+        <v>3141701217.666637</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>83707053.97851485</v>
+        <v>83677007.06257923</v>
       </c>
       <c r="G36" t="n">
-        <v>1459611489.467003</v>
+        <v>1459543303.485809</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8803830018.672724</v>
+        <v>8716244619.851482</v>
       </c>
     </row>
     <row r="37">
@@ -1649,25 +1649,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>222906.0974928759</v>
+        <v>222913.2017334712</v>
       </c>
       <c r="D37" t="n">
-        <v>3922030917.099982</v>
+        <v>3881600920.754917</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>75683311.21377133</v>
+        <v>75656177.70855384</v>
       </c>
       <c r="G37" t="n">
-        <v>534195443.7120618</v>
+        <v>534163933.2773733</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>4532132578.123308</v>
+        <v>4491643944.942577</v>
       </c>
     </row>
     <row r="38">
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>138858776.856345</v>
+        <v>138855364.1606155</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>138858776.856345</v>
+        <v>138855364.1606155</v>
       </c>
     </row>
     <row r="39">
@@ -1718,7 +1718,7 @@
         <v>71772729.48120731</v>
       </c>
       <c r="D39" t="n">
-        <v>1018078166.228578</v>
+        <v>988970426.5012425</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1727,13 +1727,13 @@
         <v>1648004688.212083</v>
       </c>
       <c r="G39" t="n">
-        <v>400389145.7439296</v>
+        <v>400366459.678767</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3138244729.665798</v>
+        <v>3109114303.8733</v>
       </c>
     </row>
     <row r="40">
@@ -1760,13 +1760,13 @@
         <v>879364677.5498993</v>
       </c>
       <c r="G40" t="n">
-        <v>13458333365.09733</v>
+        <v>13458006236.06995</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>14337698042.64723</v>
+        <v>14337370913.61985</v>
       </c>
     </row>
     <row r="41">
@@ -1781,25 +1781,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>31.8871637419285</v>
+        <v>31.88818001777592</v>
       </c>
       <c r="D41" t="n">
-        <v>657100480.5762606</v>
+        <v>637924020.9677939</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>15714114.41766413</v>
+        <v>15708498.69439514</v>
       </c>
       <c r="G41" t="n">
-        <v>315833171.6401061</v>
+        <v>315818225.8416229</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>988647798.5211947</v>
+        <v>969450777.3919921</v>
       </c>
     </row>
     <row r="42">
@@ -1817,7 +1817,7 @@
         <v>14234914.35090468</v>
       </c>
       <c r="D42" t="n">
-        <v>125724495.9356362</v>
+        <v>121924782.4168632</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1826,13 +1826,13 @@
         <v>740048.7312050576</v>
       </c>
       <c r="G42" t="n">
-        <v>56556389.70484301</v>
+        <v>56553428.27433369</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>197255848.7225889</v>
+        <v>193453173.7733066</v>
       </c>
     </row>
     <row r="43">
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2672266490.979695</v>
+        <v>2602720171.109299</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>2731420631.153298</v>
       </c>
       <c r="G43" t="n">
-        <v>1403997247.377517</v>
+        <v>1403943044.187603</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>6807684369.51051</v>
+        <v>6738083846.450201</v>
       </c>
     </row>
   </sheetData>
@@ -1958,13 +1958,13 @@
         <v>1722654285.431804</v>
       </c>
       <c r="G2" t="n">
-        <v>5154183798.647031</v>
+        <v>5154062974.982392</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6876838084.078835</v>
+        <v>6876717260.414196</v>
       </c>
     </row>
     <row r="3">
@@ -1982,7 +1982,7 @@
         <v>871751267.89247</v>
       </c>
       <c r="D3" t="n">
-        <v>1786527704.195369</v>
+        <v>1715223343.872172</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1991,13 +1991,13 @@
         <v>432699893.0129533</v>
       </c>
       <c r="G3" t="n">
-        <v>854882641.8033504</v>
+        <v>854839722.501099</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3945861506.904143</v>
+        <v>3874514227.278694</v>
       </c>
     </row>
     <row r="4">
@@ -2015,22 +2015,22 @@
         <v>771180929.3941004</v>
       </c>
       <c r="D4" t="n">
-        <v>2664840501.14044</v>
+        <v>2540264019.252492</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2198006800.387751</v>
+        <v>2017282341.288148</v>
       </c>
       <c r="G4" t="n">
-        <v>2043324593.762152</v>
+        <v>2043249609.067593</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7677352824.684443</v>
+        <v>7371976899.002335</v>
       </c>
     </row>
     <row r="5">
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>129647479.8813273</v>
+        <v>122635825.8182523</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2057,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>99447361.31459883</v>
+        <v>99443140.88125294</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>229094841.1959262</v>
+        <v>222078966.6995052</v>
       </c>
     </row>
     <row r="6">
@@ -2090,13 +2090,13 @@
         <v>1646667351.289297</v>
       </c>
       <c r="G6" t="n">
-        <v>7066201004.44119</v>
+        <v>7066022032.562097</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>8712868355.730486</v>
+        <v>8712689383.851393</v>
       </c>
     </row>
     <row r="7">
@@ -2123,13 +2123,13 @@
         <v>4649505875.760603</v>
       </c>
       <c r="G7" t="n">
-        <v>528324153.4514382</v>
+        <v>528316226.5982334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5177830029.212041</v>
+        <v>5177822102.358836</v>
       </c>
     </row>
     <row r="8">
@@ -2147,22 +2147,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>29004191.30291041</v>
+        <v>27393369.0864774</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>229757262.4026999</v>
+        <v>229668305.5270976</v>
       </c>
       <c r="G8" t="n">
-        <v>16527780.0229772</v>
+        <v>16526810.44180057</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>275289233.7285874</v>
+        <v>273588485.0553756</v>
       </c>
     </row>
     <row r="9">
@@ -2177,25 +2177,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>70435.77251545069</v>
+        <v>70439.38449902159</v>
       </c>
       <c r="D9" t="n">
-        <v>973438366.8763082</v>
+        <v>917495374.2493922</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>63918277.99525587</v>
+        <v>63893499.38381829</v>
       </c>
       <c r="G9" t="n">
-        <v>586397970.0120939</v>
+        <v>586364296.977254</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1623825050.656173</v>
+        <v>1567823609.994964</v>
       </c>
     </row>
     <row r="10">
@@ -2213,7 +2213,7 @@
         <v>2835069363.81169</v>
       </c>
       <c r="D10" t="n">
-        <v>11364479770.70651</v>
+        <v>10890692985.10087</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>7260715462.353046</v>
       </c>
       <c r="G10" t="n">
-        <v>9333653765.563585</v>
+        <v>9333368585.2722</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>30793918362.43483</v>
+        <v>30319846396.5378</v>
       </c>
     </row>
     <row r="11">
@@ -2246,7 +2246,7 @@
         <v>991805413.0775133</v>
       </c>
       <c r="D11" t="n">
-        <v>750376818.4092298</v>
+        <v>718016434.6267296</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2255,13 +2255,13 @@
         <v>1130824590.998353</v>
       </c>
       <c r="G11" t="n">
-        <v>605443766.7515503</v>
+        <v>605424288.4884226</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3478450589.236646</v>
+        <v>3446070727.191018</v>
       </c>
     </row>
     <row r="12">
@@ -2279,7 +2279,7 @@
         <v>134792808.3516003</v>
       </c>
       <c r="D12" t="n">
-        <v>3935834621.179158</v>
+        <v>3745636408.249329</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2288,13 +2288,13 @@
         <v>1300988740.775733</v>
       </c>
       <c r="G12" t="n">
-        <v>3049242423.702049</v>
+        <v>3049127940.176057</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8420858594.008539</v>
+        <v>8230545897.552719</v>
       </c>
     </row>
     <row r="13">
@@ -2309,25 +2309,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>58335953.25007542</v>
+        <v>57608532.1761839</v>
       </c>
       <c r="D13" t="n">
-        <v>34080632.07229733</v>
+        <v>31991247.8500419</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>877.7365391027062</v>
+        <v>877.3966879701775</v>
       </c>
       <c r="G13" t="n">
-        <v>22787715.66580188</v>
+        <v>22786458.03004794</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115205178.7247137</v>
+        <v>112387115.4529617</v>
       </c>
     </row>
     <row r="14">
@@ -2345,7 +2345,7 @@
         <v>857650250.0368606</v>
       </c>
       <c r="D14" t="n">
-        <v>490067859.3513417</v>
+        <v>465806833.2540939</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -2354,13 +2354,13 @@
         <v>316562231.4796273</v>
       </c>
       <c r="G14" t="n">
-        <v>376281349.2963984</v>
+        <v>376266746.1738505</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2040561690.164228</v>
+        <v>2016286060.944432</v>
       </c>
     </row>
     <row r="15">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>7885243253.626516</v>
+        <v>7582281442.1426</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>4699468589.309033</v>
       </c>
       <c r="G15" t="n">
-        <v>5373704415.223249</v>
+        <v>5373522057.377267</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>17958416258.1588</v>
+        <v>17655272088.8289</v>
       </c>
     </row>
     <row r="16">
@@ -2420,13 +2420,13 @@
         <v>4000730113.1155</v>
       </c>
       <c r="G16" t="n">
-        <v>20149370298.47275</v>
+        <v>20148895582.99059</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>24150100411.58825</v>
+        <v>24149625696.10609</v>
       </c>
     </row>
     <row r="17">
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>41406444.58682031</v>
+        <v>41390412.93714918</v>
       </c>
       <c r="G17" t="n">
-        <v>11003642.97595057</v>
+        <v>11003367.51185985</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>52410087.56277088</v>
+        <v>52393780.44900903</v>
       </c>
     </row>
     <row r="18">
@@ -2477,7 +2477,7 @@
         <v>16927148.92870053</v>
       </c>
       <c r="D18" t="n">
-        <v>272571041.5409321</v>
+        <v>259088835.7568411</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -2486,13 +2486,13 @@
         <v>76860602.84036654</v>
       </c>
       <c r="G18" t="n">
-        <v>218611028.6668534</v>
+        <v>218602913.4988266</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>584969821.9768525</v>
+        <v>571479501.0247347</v>
       </c>
     </row>
     <row r="19">
@@ -2519,13 +2519,13 @@
         <v>3032372853.033728</v>
       </c>
       <c r="G19" t="n">
-        <v>6883618584.759868</v>
+        <v>6883408932.086142</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9915991437.793596</v>
+        <v>9915781785.119869</v>
       </c>
     </row>
     <row r="20">
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>110852158.6494859</v>
+        <v>104091339.4017697</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>58340007.67144836</v>
+        <v>58335938.21982654</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>169192166.3209342</v>
+        <v>162427277.6215963</v>
       </c>
     </row>
     <row r="21">
@@ -2573,25 +2573,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>307219362.3385053</v>
+        <v>303389299.1420747</v>
       </c>
       <c r="D21" t="n">
-        <v>633959551.9149164</v>
+        <v>601665166.6884935</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>67713060.91282356</v>
+        <v>67686815.445133</v>
       </c>
       <c r="G21" t="n">
-        <v>471303284.761223</v>
+        <v>471283846.223744</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1480195259.927468</v>
+        <v>1444025127.499445</v>
       </c>
     </row>
     <row r="22">
@@ -2618,13 +2618,13 @@
         <v>130523759.4982921</v>
       </c>
       <c r="G22" t="n">
-        <v>78447163.19524914</v>
+        <v>78444244.23731585</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>208970922.6935412</v>
+        <v>208968003.735608</v>
       </c>
     </row>
     <row r="23">
@@ -2642,7 +2642,7 @@
         <v>2697192434.663378</v>
       </c>
       <c r="D23" t="n">
-        <v>7922297740.65943</v>
+        <v>7715332143.069046</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>11182857328.75006</v>
       </c>
       <c r="G23" t="n">
-        <v>9355467573.092945</v>
+        <v>9355342996.994116</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>31157815077.16581</v>
+        <v>30950724903.47659</v>
       </c>
     </row>
     <row r="24">
@@ -2675,7 +2675,7 @@
         <v>912249696.7945271</v>
       </c>
       <c r="D24" t="n">
-        <v>4880581948.343956</v>
+        <v>4664761173.387065</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>3080467310.690993</v>
       </c>
       <c r="G24" t="n">
-        <v>3225292547.297207</v>
+        <v>3225162641.117129</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>12098591503.12668</v>
+        <v>11882640821.98971</v>
       </c>
     </row>
     <row r="25">
@@ -2714,16 +2714,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>140221690.1737414</v>
+        <v>140167399.4700697</v>
       </c>
       <c r="G25" t="n">
-        <v>166435958.6514292</v>
+        <v>166433442.6512644</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>306657648.8251706</v>
+        <v>306600842.1213341</v>
       </c>
     </row>
     <row r="26">
@@ -2750,13 +2750,13 @@
         <v>3066532914.569443</v>
       </c>
       <c r="G26" t="n">
-        <v>7523158018.178483</v>
+        <v>7523019438.633577</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>10589690932.74793</v>
+        <v>10589552353.20302</v>
       </c>
     </row>
     <row r="27">
@@ -2783,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2522846609.071468</v>
+        <v>2522773597.156162</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2522846609.071468</v>
+        <v>2522773597.156162</v>
       </c>
     </row>
     <row r="28">
@@ -2813,16 +2813,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>39968882.94617655</v>
+        <v>39953407.88823488</v>
       </c>
       <c r="G28" t="n">
-        <v>3538279.722674784</v>
+        <v>3537801.35248158</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>43507162.66885134</v>
+        <v>43491209.24071646</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>56330280.81001387</v>
+        <v>53533084.18526082</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>33057653.81544247</v>
+        <v>33055970.13541434</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>89387934.62545633</v>
+        <v>86589054.32067516</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>2473987704.214796</v>
       </c>
       <c r="D30" t="n">
-        <v>1467476534.385169</v>
+        <v>1416373802.179503</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>3367960752.58817</v>
       </c>
       <c r="G30" t="n">
-        <v>1237290176.266823</v>
+        <v>1237259416.666716</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8546715167.454958</v>
+        <v>8495581675.649185</v>
       </c>
     </row>
     <row r="31">
@@ -2903,25 +2903,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>89332354.67119992</v>
+        <v>88218423.55277395</v>
       </c>
       <c r="D31" t="n">
-        <v>40063956.342894</v>
+        <v>38516471.92432826</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>66660.59303476363</v>
+        <v>66634.78129328687</v>
       </c>
       <c r="G31" t="n">
-        <v>16718146.02453832</v>
+        <v>16717214.56745507</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>146181117.631667</v>
+        <v>143518744.8258506</v>
       </c>
     </row>
     <row r="32">
@@ -2936,25 +2936,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>51949719.96212066</v>
+        <v>51301932.12298515</v>
       </c>
       <c r="D32" t="n">
-        <v>102949454.2669181</v>
+        <v>98366691.03651442</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>39644820.83908883</v>
+        <v>39629471.25075036</v>
       </c>
       <c r="G32" t="n">
-        <v>92371446.83504215</v>
+        <v>92368688.39222968</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>286915441.9031698</v>
+        <v>281666782.8024796</v>
       </c>
     </row>
     <row r="33">
@@ -2981,13 +2981,13 @@
         <v>515238726.4426726</v>
       </c>
       <c r="G33" t="n">
-        <v>969216505.5305398</v>
+        <v>969185966.1681259</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1484455231.973212</v>
+        <v>1484424692.610798</v>
       </c>
     </row>
     <row r="34">
@@ -3002,10 +3002,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2024644095.294044</v>
+        <v>812391834.0411135</v>
       </c>
       <c r="D34" t="n">
-        <v>6334269192.208911</v>
+        <v>6110877729.206482</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3014,13 +3014,13 @@
         <v>1824895563.077239</v>
       </c>
       <c r="G34" t="n">
-        <v>5261486667.124573</v>
+        <v>5261352204.019125</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>15445295517.70477</v>
+        <v>14009517330.34396</v>
       </c>
     </row>
     <row r="35">
@@ -3047,13 +3047,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>502395201.8841721</v>
+        <v>502374684.5896841</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>502395201.8841721</v>
+        <v>502374684.5896841</v>
       </c>
     </row>
     <row r="36">
@@ -3068,25 +3068,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2191787329.470241</v>
+        <v>2164460162.284015</v>
       </c>
       <c r="D36" t="n">
-        <v>1976418848.52134</v>
+        <v>1881245542.212872</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>64907944.52180131</v>
+        <v>64882695.99251785</v>
       </c>
       <c r="G36" t="n">
-        <v>1294346737.65673</v>
+        <v>1294289451.231591</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>5527460860.170113</v>
+        <v>5404877851.720996</v>
       </c>
     </row>
     <row r="37">
@@ -3101,25 +3101,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>153668.36797171</v>
+        <v>153676.2481666827</v>
       </c>
       <c r="D37" t="n">
-        <v>2590689090.023454</v>
+        <v>2546707142.414519</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>58708808.31256747</v>
+        <v>58686010.19731768</v>
       </c>
       <c r="G37" t="n">
-        <v>468656933.7231057</v>
+        <v>468630460.2438616</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>3118208500.427099</v>
+        <v>3074177289.103865</v>
       </c>
     </row>
     <row r="38">
@@ -3146,13 +3146,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>124034229.2899985</v>
+        <v>124031362.1150308</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>124034229.2899985</v>
+        <v>124031362.1150308</v>
       </c>
     </row>
     <row r="39">
@@ -3170,7 +3170,7 @@
         <v>52849684.23546708</v>
       </c>
       <c r="D39" t="n">
-        <v>619348550.1014075</v>
+        <v>587683568.6659484</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3179,13 +3179,13 @@
         <v>1443866969.734998</v>
       </c>
       <c r="G39" t="n">
-        <v>351687198.9124666</v>
+        <v>351668139.2237905</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2467752402.984339</v>
+        <v>2436068361.860204</v>
       </c>
     </row>
     <row r="40">
@@ -3212,13 +3212,13 @@
         <v>736775253.5752609</v>
       </c>
       <c r="G40" t="n">
-        <v>11664699585.9479</v>
+        <v>11664424748.6249</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>12401474839.52316</v>
+        <v>12401200002.20016</v>
       </c>
     </row>
     <row r="41">
@@ -3233,25 +3233,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14.60145735862537</v>
+        <v>14.60220612906129</v>
       </c>
       <c r="D41" t="n">
-        <v>396136945.6504968</v>
+        <v>375275750.5461004</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>12185727.26774324</v>
+        <v>12181009.22016434</v>
       </c>
       <c r="G41" t="n">
-        <v>280393847.2202681</v>
+        <v>280381290.5135821</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>688716534.7399654</v>
+        <v>667838064.8820529</v>
       </c>
     </row>
     <row r="42">
@@ -3269,7 +3269,7 @@
         <v>8015337.35609397</v>
       </c>
       <c r="D42" t="n">
-        <v>74935252.26238881</v>
+        <v>70801717.36208121</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>105634.5662736499</v>
       </c>
       <c r="G42" t="n">
-        <v>50044624.05358145</v>
+        <v>50042136.00891001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>133100848.2383379</v>
+        <v>128964825.2933588</v>
       </c>
     </row>
     <row r="43">
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1660862711.337751</v>
+        <v>1585206444.371322</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>2078009637.451496</v>
       </c>
       <c r="G43" t="n">
-        <v>1174552301.297756</v>
+        <v>1174506762.509182</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>4913424650.087003</v>
+        <v>4837722844.332001</v>
       </c>
     </row>
   </sheetData>
@@ -3410,13 +3410,13 @@
         <v>1900670090.947202</v>
       </c>
       <c r="G2" t="n">
-        <v>5362927868.638056</v>
+        <v>5362796231.656738</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7263597959.585258</v>
+        <v>7263466322.60394</v>
       </c>
     </row>
     <row r="3">
@@ -3434,7 +3434,7 @@
         <v>1221433265.567402</v>
       </c>
       <c r="D3" t="n">
-        <v>2192895089.091296</v>
+        <v>2123780103.923856</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -3443,13 +3443,13 @@
         <v>586339425.5870962</v>
       </c>
       <c r="G3" t="n">
-        <v>900992126.763011</v>
+        <v>900945366.3257612</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4901659907.008805</v>
+        <v>4832498161.404115</v>
       </c>
     </row>
     <row r="4">
@@ -3467,22 +3467,22 @@
         <v>1004869116.959594</v>
       </c>
       <c r="D4" t="n">
-        <v>3321909614.964118</v>
+        <v>3201158209.876535</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2356228598.723887</v>
+        <v>2126499838.636096</v>
       </c>
       <c r="G4" t="n">
-        <v>2134699793.931642</v>
+        <v>2134618098.355976</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8817707124.579241</v>
+        <v>8467145263.828199</v>
       </c>
     </row>
     <row r="5">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>163462454.9440115</v>
+        <v>156666091.2381723</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>104657692.5057963</v>
+        <v>104653094.3576838</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>268120147.4498078</v>
+        <v>261319185.5958561</v>
       </c>
     </row>
     <row r="6">
@@ -3542,13 +3542,13 @@
         <v>1811646370.101917</v>
       </c>
       <c r="G6" t="n">
-        <v>7350619947.284586</v>
+        <v>7350424958.016756</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>9162266317.386503</v>
+        <v>9162071328.118673</v>
       </c>
     </row>
     <row r="7">
@@ -3575,13 +3575,13 @@
         <v>4950814183.823895</v>
       </c>
       <c r="G7" t="n">
-        <v>549418069.0561484</v>
+        <v>549409432.7759103</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5500232252.880044</v>
+        <v>5500223616.599806</v>
       </c>
     </row>
     <row r="8">
@@ -3599,22 +3599,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>36441393.92969308</v>
+        <v>34880031.43949581</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>255823890.5113559</v>
+        <v>255726972.2908508</v>
       </c>
       <c r="G8" t="n">
-        <v>17700684.96934212</v>
+        <v>17699628.61387059</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>309965969.4103912</v>
+        <v>308306632.3442172</v>
       </c>
     </row>
     <row r="9">
@@ -3629,25 +3629,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>79192.33601442508</v>
+        <v>79195.45192008157</v>
       </c>
       <c r="D9" t="n">
-        <v>1227862692.04619</v>
+        <v>1173637409.214873</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>71169226.68543568</v>
+        <v>71142231.28991313</v>
       </c>
       <c r="G9" t="n">
-        <v>618494216.5228703</v>
+        <v>618457529.8632545</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1917605327.590511</v>
+        <v>1863316365.81996</v>
       </c>
     </row>
     <row r="10">
@@ -3665,7 +3665,7 @@
         <v>4425459111.226663</v>
       </c>
       <c r="D10" t="n">
-        <v>14104395910.53193</v>
+        <v>13645156580.54933</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3674,13 +3674,13 @@
         <v>8422274974.073162</v>
       </c>
       <c r="G10" t="n">
-        <v>9742171741.180378</v>
+        <v>9741861038.200115</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>36694301737.01214</v>
+        <v>36234751704.04927</v>
       </c>
     </row>
     <row r="11">
@@ -3698,7 +3698,7 @@
         <v>1118005625.402117</v>
       </c>
       <c r="D11" t="n">
-        <v>927667730.0424691</v>
+        <v>896300960.3946872</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -3707,13 +3707,13 @@
         <v>1540941334.98001</v>
       </c>
       <c r="G11" t="n">
-        <v>642334527.0572684</v>
+        <v>642313305.5542862</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4228949217.481865</v>
+        <v>4197561226.3311</v>
       </c>
     </row>
     <row r="12">
@@ -3731,7 +3731,7 @@
         <v>746626619.4004967</v>
       </c>
       <c r="D12" t="n">
-        <v>4895474703.567916</v>
+        <v>4711116459.472678</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>1527739071.169963</v>
       </c>
       <c r="G12" t="n">
-        <v>3200010814.747183</v>
+        <v>3199886085.325863</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10369851208.88556</v>
+        <v>10185368235.369</v>
       </c>
     </row>
     <row r="13">
@@ -3761,25 +3761,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>76952265.35560679</v>
+        <v>76501409.41965269</v>
       </c>
       <c r="D13" t="n">
-        <v>43261536.48764768</v>
+        <v>41236306.06869826</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>977.3046289771761</v>
+        <v>976.9343620664716</v>
       </c>
       <c r="G13" t="n">
-        <v>24189745.22853786</v>
+        <v>24188375.03856109</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>144404524.3764213</v>
+        <v>141927067.4612741</v>
       </c>
     </row>
     <row r="14">
@@ -3797,7 +3797,7 @@
         <v>949961004.0002382</v>
       </c>
       <c r="D14" t="n">
-        <v>614581432.3632783</v>
+        <v>591065332.4886308</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -3806,13 +3806,13 @@
         <v>358770558.0567805</v>
       </c>
       <c r="G14" t="n">
-        <v>397085519.0232255</v>
+        <v>397069608.9697128</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2320398513.443522</v>
+        <v>2296866503.515362</v>
       </c>
     </row>
     <row r="15">
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>9715979188.862337</v>
+        <v>9422319712.610088</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -3839,13 +3839,13 @@
         <v>4973282138.740775</v>
       </c>
       <c r="G15" t="n">
-        <v>5608664772.906904</v>
+        <v>5608466094.639394</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20297926100.51002</v>
+        <v>20004067945.99026</v>
       </c>
     </row>
     <row r="16">
@@ -3872,13 +3872,13 @@
         <v>4466477062.895829</v>
       </c>
       <c r="G16" t="n">
-        <v>21020444258.30275</v>
+        <v>21019927057.36168</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>25486921321.19858</v>
+        <v>25486404120.2575</v>
       </c>
     </row>
     <row r="17">
@@ -3902,16 +3902,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>46104125.87471173</v>
+        <v>46086659.44564293</v>
       </c>
       <c r="G17" t="n">
-        <v>11496345.44040776</v>
+        <v>11496045.32319585</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>57600471.31511949</v>
+        <v>57582704.76883878</v>
       </c>
     </row>
     <row r="18">
@@ -3929,7 +3929,7 @@
         <v>29015740.08553806</v>
       </c>
       <c r="D18" t="n">
-        <v>341995059.7398728</v>
+        <v>328926820.3142862</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -3938,13 +3938,13 @@
         <v>87663110.93857871</v>
       </c>
       <c r="G18" t="n">
-        <v>228706045.3548011</v>
+        <v>228697203.9061899</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>687379956.1187906</v>
+        <v>674302875.2445929</v>
       </c>
     </row>
     <row r="19">
@@ -3971,13 +3971,13 @@
         <v>3183724758.661142</v>
       </c>
       <c r="G19" t="n">
-        <v>7574905605.818681</v>
+        <v>7574677189.927001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>10758630364.47982</v>
+        <v>10758401948.58814</v>
       </c>
     </row>
     <row r="20">
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>140550368.9128367</v>
+        <v>133997138.2280979</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -4004,13 +4004,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>62067915.3822849</v>
+        <v>62063481.72825931</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>202618284.2951216</v>
+        <v>196060619.9563572</v>
       </c>
     </row>
     <row r="21">
@@ -4025,25 +4025,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>405259291.7082416</v>
+        <v>402885417.9541403</v>
       </c>
       <c r="D21" t="n">
-        <v>792518323.168052</v>
+        <v>761215525.6140336</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>75382607.93759878</v>
+        <v>75354013.87164921</v>
       </c>
       <c r="G21" t="n">
-        <v>497925050.7857945</v>
+        <v>497903872.5637748</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1771085273.599687</v>
+        <v>1737358830.003598</v>
       </c>
     </row>
     <row r="22">
@@ -4070,13 +4070,13 @@
         <v>149757393.7450894</v>
       </c>
       <c r="G22" t="n">
-        <v>81853774.0568244</v>
+        <v>81850593.86185117</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>231611167.8019137</v>
+        <v>231607987.6069405</v>
       </c>
     </row>
     <row r="23">
@@ -4094,7 +4094,7 @@
         <v>2933516177.783658</v>
       </c>
       <c r="D23" t="n">
-        <v>9699376154.361629</v>
+        <v>9498765362.219425</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>11632238683.1477</v>
       </c>
       <c r="G23" t="n">
-        <v>9659229618.449375</v>
+        <v>9659093893.20347</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>33924360633.74236</v>
+        <v>33723614116.35425</v>
       </c>
     </row>
     <row r="24">
@@ -4127,7 +4127,7 @@
         <v>1087728491.901122</v>
       </c>
       <c r="D24" t="n">
-        <v>6036117415.051406</v>
+        <v>5826923340.630711</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -4136,13 +4136,13 @@
         <v>3293254072.602161</v>
       </c>
       <c r="G24" t="n">
-        <v>3379083680.214189</v>
+        <v>3378942147.862467</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>13796183659.76888</v>
+        <v>13586848052.99646</v>
       </c>
     </row>
     <row r="25">
@@ -4166,16 +4166,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>156130247.8067085</v>
+        <v>156071098.2653807</v>
       </c>
       <c r="G25" t="n">
-        <v>171895325.8628642</v>
+        <v>171892584.6890414</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>328025573.6695727</v>
+        <v>327963682.9544221</v>
       </c>
     </row>
     <row r="26">
@@ -4202,13 +4202,13 @@
         <v>3345759104.605494</v>
       </c>
       <c r="G26" t="n">
-        <v>7798891739.632852</v>
+        <v>7798740757.678958</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>11144650844.23835</v>
+        <v>11144499862.28445</v>
       </c>
     </row>
     <row r="27">
@@ -4235,13 +4235,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2647732632.256252</v>
+        <v>2647653086.01703</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2647732632.256252</v>
+        <v>2647653086.01703</v>
       </c>
     </row>
     <row r="28">
@@ -4265,16 +4265,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>44503468.69454916</v>
+        <v>44486608.67032093</v>
       </c>
       <c r="G28" t="n">
-        <v>3851099.568747896</v>
+        <v>3850578.38601127</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48354568.26329705</v>
+        <v>48337187.0563322</v>
       </c>
     </row>
     <row r="29">
@@ -4292,7 +4292,7 @@
         <v>4584617.094695453</v>
       </c>
       <c r="D29" t="n">
-        <v>70065394.04549952</v>
+        <v>67354084.35344234</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4301,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>35015402.15187003</v>
+        <v>35013567.7880716</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>109665413.292065</v>
+        <v>106952269.2362094</v>
       </c>
     </row>
     <row r="30">
@@ -4325,7 +4325,7 @@
         <v>2582969545.753955</v>
       </c>
       <c r="D30" t="n">
-        <v>1794155961.168182</v>
+        <v>1744622320.274397</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -4334,13 +4334,13 @@
         <v>3812108331.641644</v>
       </c>
       <c r="G30" t="n">
-        <v>1286220275.065798</v>
+        <v>1286186762.583648</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9475454113.629578</v>
+        <v>9425886960.253643</v>
       </c>
     </row>
     <row r="31">
@@ -4355,25 +4355,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>117840314.0729189</v>
+        <v>117149899.0231743</v>
       </c>
       <c r="D31" t="n">
-        <v>48543040.22707974</v>
+        <v>47043070.77007557</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74222.51266132492</v>
+        <v>74194.39088048485</v>
       </c>
       <c r="G31" t="n">
-        <v>18035022.4449584</v>
+        <v>18034007.62555996</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>184492599.2576183</v>
+        <v>182301171.8096903</v>
       </c>
     </row>
     <row r="32">
@@ -4388,25 +4388,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>68528041.6709657</v>
+        <v>68126542.45270517</v>
       </c>
       <c r="D32" t="n">
-        <v>128460576.2872889</v>
+        <v>124018525.180462</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>44142640.8010779</v>
+        <v>44125917.47556563</v>
       </c>
       <c r="G32" t="n">
-        <v>96102996.25102368</v>
+        <v>96099990.93674144</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>337234255.0103562</v>
+        <v>332370976.0454742</v>
       </c>
     </row>
     <row r="33">
@@ -4433,13 +4433,13 @@
         <v>621614539.260121</v>
       </c>
       <c r="G33" t="n">
-        <v>1020922029.715902</v>
+        <v>1020888757.181986</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1642536568.976023</v>
+        <v>1642503296.442107</v>
       </c>
     </row>
     <row r="34">
@@ -4454,10 +4454,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2214097325.319032</v>
+        <v>1001845064.066102</v>
       </c>
       <c r="D34" t="n">
-        <v>7753562993.267817</v>
+        <v>7537030686.099463</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -4466,13 +4466,13 @@
         <v>2378673863.6001</v>
       </c>
       <c r="G34" t="n">
-        <v>5477402003.758297</v>
+        <v>5477255506.651522</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>17823736185.94524</v>
+        <v>16394805120.41718</v>
       </c>
     </row>
     <row r="35">
@@ -4499,13 +4499,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>526349452.8677716</v>
+        <v>526327099.3435735</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>526349452.8677716</v>
+        <v>526327099.3435735</v>
       </c>
     </row>
     <row r="36">
@@ -4520,25 +4520,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2891180324.77426</v>
+        <v>2874242936.451978</v>
       </c>
       <c r="D36" t="n">
-        <v>2461323792.208825</v>
+        <v>2369072748.597596</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>72272303.26627634</v>
+        <v>72244798.32711643</v>
       </c>
       <c r="G36" t="n">
-        <v>1357681695.25285</v>
+        <v>1357619281.882934</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6782458115.50221</v>
+        <v>6673179765.259624</v>
       </c>
     </row>
     <row r="37">
@@ -4553,25 +4553,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>181386.7968841937</v>
+        <v>181393.9337382741</v>
       </c>
       <c r="D37" t="n">
-        <v>3097167275.95625</v>
+        <v>3054535778.487535</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>65359208.66493109</v>
+        <v>65334371.64268081</v>
       </c>
       <c r="G37" t="n">
-        <v>493952046.7507746</v>
+        <v>493923203.9830677</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>3656659918.168839</v>
+        <v>3613974748.047021</v>
       </c>
     </row>
     <row r="38">
@@ -4598,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>129481371.2103852</v>
+        <v>129478247.432781</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>129481371.2103852</v>
+        <v>129478247.432781</v>
       </c>
     </row>
     <row r="39">
@@ -4622,7 +4622,7 @@
         <v>60551696.24306175</v>
       </c>
       <c r="D39" t="n">
-        <v>773451478.0135235</v>
+        <v>742758758.6297545</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>1523510916.248781</v>
       </c>
       <c r="G39" t="n">
-        <v>370456612.2993288</v>
+        <v>370435846.8318214</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2727970702.804695</v>
+        <v>2697257217.953419</v>
       </c>
     </row>
     <row r="40">
@@ -4664,13 +4664,13 @@
         <v>790088783.3426948</v>
       </c>
       <c r="G40" t="n">
-        <v>12335210689.27203</v>
+        <v>12334911254.92146</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>13125299472.61472</v>
+        <v>13125000038.26416</v>
       </c>
     </row>
     <row r="41">
@@ -4685,25 +4685,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21.13530734140502</v>
+        <v>21.1361389322762</v>
       </c>
       <c r="D41" t="n">
-        <v>497390390.9157122</v>
+        <v>477169731.4261638</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>13568228.50844968</v>
+        <v>13563088.21126729</v>
       </c>
       <c r="G41" t="n">
-        <v>293976732.6450028</v>
+        <v>293963052.1547745</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>804935373.2044719</v>
+        <v>784695892.9283445</v>
       </c>
     </row>
     <row r="42">
@@ -4721,7 +4721,7 @@
         <v>10485495.16764931</v>
       </c>
       <c r="D42" t="n">
-        <v>94605035.72883716</v>
+        <v>90598419.55517079</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -4730,13 +4730,13 @@
         <v>346712.0264263992</v>
       </c>
       <c r="G42" t="n">
-        <v>52572626.86225463</v>
+        <v>52569916.14584894</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>158009869.7851675</v>
+        <v>154000542.8950955</v>
       </c>
     </row>
     <row r="43">
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2052224722.684336</v>
+        <v>1978891454.627411</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -4763,13 +4763,13 @@
         <v>2346762980.504397</v>
       </c>
       <c r="G43" t="n">
-        <v>1254299173.454641</v>
+        <v>1254249559.095743</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5653286876.643375</v>
+        <v>5579903994.227551</v>
       </c>
     </row>
   </sheetData>
